--- a/database/AN_pp/expdata/4001.xlsx
+++ b/database/AN_pp/expdata/4001.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D164D381-8853-264E-9D66-8A2DF4ECFC08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419A36E2-C483-2D44-88DD-4111DC746395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="3740" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5420" yWindow="12900" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>xF</t>
   </si>
@@ -62,6 +72,12 @@
   </si>
   <si>
     <t>jet</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>&lt;y&gt;</t>
   </si>
 </sst>
 </file>
@@ -93,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -165,11 +181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -180,6 +207,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +587,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0.130111</v>
       </c>
@@ -589,8 +625,16 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>ASINH(A2*F2/(2*E2))</f>
+        <v>3.4550826037511446</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(K1:K11)</f>
+        <v>3.5723396241294103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0.144014</v>
       </c>
@@ -621,8 +665,12 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="0">ASINH(A3*F3/(2*E3))</f>
+        <v>3.4646988685684281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.16265199999999999</v>
       </c>
@@ -653,8 +701,12 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3.48019251991703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.18221599999999999</v>
       </c>
@@ -685,8 +737,12 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3.5049581414392708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.20196900000000001</v>
       </c>
@@ -717,8 +773,12 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.5367827690798839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>0.22181699999999999</v>
       </c>
@@ -749,8 +809,12 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3.5730944263638986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.24540000000000001</v>
       </c>
@@ -781,8 +845,12 @@
       <c r="J8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>3.6243953449350297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>0.27831</v>
       </c>
@@ -813,8 +881,12 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>3.6962604382325868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.32464799999999999</v>
       </c>
@@ -845,8 +917,12 @@
       <c r="J10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>3.7547492486515246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.39758300000000002</v>
       </c>
@@ -876,6 +952,10 @@
       </c>
       <c r="J11" t="s">
         <v>12</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>3.6331818803553002</v>
       </c>
     </row>
   </sheetData>

--- a/database/AN_pp/expdata/4001.xlsx
+++ b/database/AN_pp/expdata/4001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419A36E2-C483-2D44-88DD-4111DC746395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F00AC-4CCF-3240-863E-1E6DD408ED44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="12900" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23760" yWindow="3760" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
   <si>
     <t>xF</t>
   </si>
@@ -78,13 +78,22 @@
   </si>
   <si>
     <t>&lt;y&gt;</t>
+  </si>
+  <si>
+    <t>Dependence</t>
+  </si>
+  <si>
+    <t>xFmin</t>
+  </si>
+  <si>
+    <t>xFmax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +105,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,20 +212,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,28 +605,37 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="M1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>0.130111</v>
+        <v>0.1225292</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>9.3670299999999999E-4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>2.05681</v>
+        <v>2.6480299999999999</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -627,28 +654,37 @@
       </c>
       <c r="K2">
         <f>ASINH(A2*F2/(2*E2))</f>
-        <v>3.4550826037511446</v>
+        <v>3.1432492212380505</v>
       </c>
       <c r="L2">
         <f>AVERAGE(K1:K11)</f>
-        <v>3.5723396241294103</v>
+        <v>3.3719632483897173</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.112</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>0.144014</v>
+        <v>0.14227919999999999</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>8.0409999999999998E-4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>2.2547600000000001</v>
+        <v>2.8160799999999999</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -667,24 +703,33 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K11" si="0">ASINH(A3*F3/(2*E3))</f>
-        <v>3.4646988685684281</v>
+        <v>3.2308616196731061</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.152</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>0.16265199999999999</v>
+        <v>0.16207759999999999</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>7.4040300000000005E-4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>2.5073400000000001</v>
+        <v>2.9604499999999998</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -703,24 +748,33 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>3.48019251991703</v>
+        <v>3.3109186383784053</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.152</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0.18221599999999999</v>
+        <v>0.18187319999999998</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>7.3004899999999998E-4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>2.7400899999999999</v>
+        <v>3.0997499999999998</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -739,24 +793,33 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3.5049581414392708</v>
+        <v>3.380000996618266</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.192</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>0.20196900000000001</v>
+        <v>0.20160640000000002</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>7.5879599999999995E-4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>2.9418299999999999</v>
+        <v>3.3249399999999998</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -775,24 +838,33 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3.5367827690798839</v>
+        <v>3.4128046762569686</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.192</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>0.22181699999999999</v>
+        <v>0.2215192</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>8.2508099999999997E-4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>3.1155300000000001</v>
+        <v>3.58772</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -811,24 +883,33 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>3.5730944263638986</v>
+        <v>3.4308927748846876</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>0.24540000000000001</v>
+        <v>0.24490919999999999</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>8.2751299999999999E-4</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>3.2741500000000001</v>
+        <v>3.8971200000000001</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -847,24 +928,33 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>3.6243953449350297</v>
+        <v>3.448513826806769</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>0.27831</v>
+        <v>0.27750999999999998</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>9.2643700000000001E-4</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="7">
-        <v>3.4554200000000002</v>
+        <v>4.3504500000000004</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -883,24 +973,33 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>3.6962604382325868</v>
+        <v>3.4634120933461636</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>0.32464799999999999</v>
+        <v>0.324214</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.21086E-3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>3.8014899999999998</v>
+        <v>5.0665699999999996</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -919,24 +1018,33 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>3.7547492486515246</v>
+        <v>3.4665679652660821</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.39758300000000002</v>
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>0.39959840000000002</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1.94144E-3</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5.2581199999999999</v>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6.4620499999999996</v>
       </c>
       <c r="F11">
         <v>500</v>
@@ -955,7 +1063,16 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>3.6331818803553002</v>
+        <v>3.4324106714286748</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
